--- a/data_year/zb/建筑业/建设工程监理营业收入/工程招标代理收入.xlsx
+++ b/data_year/zb/建筑业/建设工程监理营业收入/工程招标代理收入.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,358 +523,104 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>51</v>
+      </c>
       <c r="C2" t="n">
-        <v>327.92</v>
-      </c>
-      <c r="D2" t="n">
-        <v>72.03</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>597.23</v>
+        <v>1055</v>
       </c>
       <c r="F2" t="n">
-        <v>344.75</v>
+        <v>1824</v>
       </c>
       <c r="G2" t="n">
-        <v>57472.66</v>
+        <v>247760</v>
       </c>
       <c r="H2" t="n">
-        <v>2980.28</v>
+        <v>14665</v>
       </c>
       <c r="I2" t="n">
-        <v>48768.45</v>
-      </c>
-      <c r="J2" t="n">
-        <v>63.52</v>
-      </c>
+        <v>180029</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>1362.5</v>
+        <v>3180</v>
       </c>
       <c r="L2" t="n">
-        <v>338.2</v>
+        <v>1516</v>
       </c>
       <c r="M2" t="n">
-        <v>2257.96</v>
+        <v>23329</v>
       </c>
       <c r="N2" t="n">
-        <v>62.46</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="Q2" t="inlineStr"/>
+        <v>369</v>
+      </c>
+      <c r="O2" t="n">
+        <v>20547</v>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="n">
+        <v>292</v>
+      </c>
       <c r="R2" t="n">
-        <v>289.63</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>679.74</v>
+      </c>
       <c r="C3" t="n">
-        <v>323</v>
-      </c>
-      <c r="D3" t="n">
-        <v>60</v>
-      </c>
+        <v>610.88</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>704.37</v>
+        <v>993.98</v>
       </c>
       <c r="F3" t="n">
-        <v>414.17</v>
+        <v>1778.64</v>
       </c>
       <c r="G3" t="n">
-        <v>78967.2</v>
+        <v>298438.93</v>
       </c>
       <c r="H3" t="n">
-        <v>5899.33</v>
+        <v>11755.53</v>
       </c>
       <c r="I3" t="n">
-        <v>63174.07</v>
-      </c>
-      <c r="J3" t="n">
-        <v>41.11</v>
-      </c>
+        <v>219186.67</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>1932.19</v>
+        <v>6213.24</v>
       </c>
       <c r="L3" t="n">
-        <v>649.9400000000001</v>
+        <v>797.87</v>
       </c>
       <c r="M3" t="n">
-        <v>5322.81</v>
+        <v>28775.17</v>
       </c>
       <c r="N3" t="n">
-        <v>182.15</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="Q3" t="inlineStr"/>
+        <v>329.35</v>
+      </c>
+      <c r="O3" t="n">
+        <v>25596.06</v>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="n">
+        <v>1140.43</v>
+      </c>
       <c r="R3" t="n">
-        <v>259.36</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="n">
-        <v>233.72</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
-        <v>677.5599999999999</v>
-      </c>
-      <c r="F4" t="n">
-        <v>277.78</v>
-      </c>
-      <c r="G4" t="n">
-        <v>95811.23</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6382.86</v>
-      </c>
-      <c r="I4" t="n">
-        <v>76664.45</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>2714.74</v>
-      </c>
-      <c r="L4" t="n">
-        <v>626.23</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7339.48</v>
-      </c>
-      <c r="N4" t="n">
-        <v>229.3</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="n">
-        <v>307.66</v>
-      </c>
-      <c r="R4" t="n">
-        <v>331.23</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="n">
-        <v>427</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="n">
-        <v>820</v>
-      </c>
-      <c r="F5" t="n">
-        <v>583</v>
-      </c>
-      <c r="G5" t="n">
-        <v>147120</v>
-      </c>
-      <c r="H5" t="n">
-        <v>6820</v>
-      </c>
-      <c r="I5" t="n">
-        <v>108292</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>3504</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1280</v>
-      </c>
-      <c r="M5" t="n">
-        <v>10263</v>
-      </c>
-      <c r="N5" t="n">
-        <v>521</v>
-      </c>
-      <c r="O5" t="n">
-        <v>13518</v>
-      </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="n">
-        <v>449</v>
-      </c>
-      <c r="R5" t="n">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>82.16</v>
-      </c>
-      <c r="C6" t="n">
-        <v>285.79</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
-        <v>1270.24</v>
-      </c>
-      <c r="F6" t="n">
-        <v>646.8</v>
-      </c>
-      <c r="G6" t="n">
-        <v>192109.55</v>
-      </c>
-      <c r="H6" t="n">
-        <v>12384.77</v>
-      </c>
-      <c r="I6" t="n">
-        <v>140074.93</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>2973.03</v>
-      </c>
-      <c r="L6" t="n">
-        <v>981.47</v>
-      </c>
-      <c r="M6" t="n">
-        <v>19720.57</v>
-      </c>
-      <c r="N6" t="n">
-        <v>128</v>
-      </c>
-      <c r="O6" t="n">
-        <v>12508.01</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="n">
-        <v>412.95</v>
-      </c>
-      <c r="R6" t="n">
-        <v>640.83</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>51</v>
-      </c>
-      <c r="C7" t="n">
-        <v>418</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>1055</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1824</v>
-      </c>
-      <c r="G7" t="n">
-        <v>247760</v>
-      </c>
-      <c r="H7" t="n">
-        <v>14665</v>
-      </c>
-      <c r="I7" t="n">
-        <v>180029</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>3180</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1516</v>
-      </c>
-      <c r="M7" t="n">
-        <v>23329</v>
-      </c>
-      <c r="N7" t="n">
-        <v>369</v>
-      </c>
-      <c r="O7" t="n">
-        <v>20547</v>
-      </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="n">
-        <v>292</v>
-      </c>
-      <c r="R7" t="n">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>679.74</v>
-      </c>
-      <c r="C8" t="n">
-        <v>610.88</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
-        <v>993.98</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1778.64</v>
-      </c>
-      <c r="G8" t="n">
-        <v>298438.93</v>
-      </c>
-      <c r="H8" t="n">
-        <v>11755.53</v>
-      </c>
-      <c r="I8" t="n">
-        <v>219186.67</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>6213.24</v>
-      </c>
-      <c r="L8" t="n">
-        <v>797.87</v>
-      </c>
-      <c r="M8" t="n">
-        <v>28775.17</v>
-      </c>
-      <c r="N8" t="n">
-        <v>329.35</v>
-      </c>
-      <c r="O8" t="n">
-        <v>25596.06</v>
-      </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="n">
-        <v>1140.43</v>
-      </c>
-      <c r="R8" t="n">
         <v>581.37</v>
       </c>
     </row>
